--- a/scene_cat_exp_2023.2/input_files/4_scenecat_memory_living_rooms_1.xlsx
+++ b/scene_cat_exp_2023.2/input_files/4_scenecat_memory_living_rooms_1.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -575,23 +575,23 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_pey7u.png</t>
+          <t>stimuli/img_0kqc0.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>30.34883720930232</v>
+        <v>43.74468085106383</v>
       </c>
       <c r="N3">
-        <v>20.34883720930232</v>
+        <v>27.14893617021277</v>
       </c>
       <c r="O3">
-        <v>25.34883720930232</v>
+        <v>35.4468085106383</v>
       </c>
       <c r="P3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -648,29 +648,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_abobq.png</t>
+          <t>stimuli/img_wgkqa.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>75.18421052631579</v>
+        <v>87.25581395348837</v>
       </c>
       <c r="N4">
-        <v>54.13157894736842</v>
+        <v>71.13953488372093</v>
       </c>
       <c r="O4">
-        <v>64.65789473684211</v>
+        <v>79.19767441860465</v>
       </c>
       <c r="P4">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -692,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -721,29 +721,29 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_cehin.png</t>
+          <t>stimuli/img_di6f0.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>78.86363636363636</v>
+        <v>94.04347826086956</v>
       </c>
       <c r="N5">
-        <v>60.02272727272727</v>
+        <v>83.34782608695652</v>
       </c>
       <c r="O5">
-        <v>69.44318181818181</v>
+        <v>88.69565217391303</v>
       </c>
       <c r="P5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -765,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -777,41 +777,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_314bq.png</t>
+          <t>stimuli/img_6zz63.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>37.08888888888889</v>
+        <v>87.66666666666667</v>
       </c>
       <c r="N6">
-        <v>20.04444444444444</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="O6">
-        <v>28.56666666666667</v>
+        <v>79.13333333333333</v>
       </c>
       <c r="P6">
         <v>45</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -862,29 +867,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_xu1p3.png</t>
+          <t>stimuli/img_tujn3.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>75.27659574468085</v>
+        <v>81.40909090909091</v>
       </c>
       <c r="N7">
-        <v>56.68085106382978</v>
+        <v>62.52272727272727</v>
       </c>
       <c r="O7">
-        <v>65.97872340425532</v>
+        <v>71.96590909090909</v>
       </c>
       <c r="P7">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -935,29 +940,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_bbs77.png</t>
+          <t>stimuli/img_xy930.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>31.64444444444445</v>
+        <v>70.5952380952381</v>
       </c>
       <c r="N8">
-        <v>21.26666666666667</v>
+        <v>49.47619047619047</v>
       </c>
       <c r="O8">
-        <v>26.45555555555556</v>
+        <v>60.03571428571429</v>
       </c>
       <c r="P8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -979,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -991,46 +996,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_bj99b.png</t>
+          <t>stimuli/img_b17ma.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>82.79069767441861</v>
+        <v>23.0625</v>
       </c>
       <c r="N9">
-        <v>65.46511627906976</v>
+        <v>13.375</v>
       </c>
       <c r="O9">
-        <v>74.12790697674419</v>
+        <v>18.21875</v>
       </c>
       <c r="P9">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1081,20 +1081,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_w8yhd.png</t>
+          <t>stimuli/img_6a0hu.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>55.74418604651163</v>
+        <v>61.275</v>
       </c>
       <c r="N10">
-        <v>38.90697674418605</v>
+        <v>42.025</v>
       </c>
       <c r="O10">
-        <v>47.32558139534883</v>
+        <v>51.65</v>
       </c>
       <c r="P10">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -1125,7 +1125,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1154,29 +1154,29 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_di6f0.png</t>
+          <t>stimuli/img_bbs77.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>94.04347826086956</v>
+        <v>31.64444444444445</v>
       </c>
       <c r="N11">
-        <v>83.34782608695652</v>
+        <v>21.26666666666667</v>
       </c>
       <c r="O11">
-        <v>88.69565217391303</v>
+        <v>26.45555555555556</v>
       </c>
       <c r="P11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1198,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1227,29 +1227,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_tujn3.png</t>
+          <t>stimuli/img_xbtev.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>81.40909090909091</v>
+        <v>13.68181818181818</v>
       </c>
       <c r="N12">
-        <v>62.52272727272727</v>
+        <v>8.568181818181818</v>
       </c>
       <c r="O12">
-        <v>71.96590909090909</v>
+        <v>11.125</v>
       </c>
       <c r="P12">
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1271,7 +1271,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1283,41 +1283,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_c0ecw.png</t>
+          <t>stimuli/img_kost0.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>18.88888888888889</v>
+        <v>63.09090909090909</v>
       </c>
       <c r="N13">
-        <v>17.82222222222222</v>
+        <v>42.77272727272727</v>
       </c>
       <c r="O13">
-        <v>18.35555555555555</v>
+        <v>52.93181818181819</v>
       </c>
       <c r="P13">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1339,7 +1344,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1351,37 +1356,32 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_0kqc0.png</t>
+          <t>stimuli/img_314bq.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>43.74468085106383</v>
+        <v>37.08888888888889</v>
       </c>
       <c r="N14">
-        <v>27.14893617021277</v>
+        <v>20.04444444444444</v>
       </c>
       <c r="O14">
-        <v>35.4468085106383</v>
+        <v>28.56666666666667</v>
       </c>
       <c r="P14">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -1412,7 +1412,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1436,29 +1436,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_f63yi.png</t>
+          <t>stimuli/img_c0ecw.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>85.27500000000001</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="N15">
-        <v>68.47499999999999</v>
+        <v>17.82222222222222</v>
       </c>
       <c r="O15">
-        <v>76.875</v>
+        <v>18.35555555555555</v>
       </c>
       <c r="P15">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1480,16 +1480,21 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1499,8 +1504,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/catch_12.jpg</t>
-        </is>
+          <t>stimuli/img_f63yi.png</t>
+        </is>
+      </c>
+      <c r="M16">
+        <v>85.27500000000001</v>
+      </c>
+      <c r="N16">
+        <v>68.47499999999999</v>
+      </c>
+      <c r="O16">
+        <v>76.875</v>
+      </c>
+      <c r="P16">
+        <v>40</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1522,7 +1548,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1534,41 +1560,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_dg5h7.png</t>
+          <t>stimuli/img_xu1p3.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>88.72093023255815</v>
+        <v>75.27659574468085</v>
       </c>
       <c r="N17">
-        <v>76.06976744186046</v>
+        <v>56.68085106382978</v>
       </c>
       <c r="O17">
-        <v>82.3953488372093</v>
+        <v>65.97872340425532</v>
       </c>
       <c r="P17">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S17">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1590,7 +1621,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1602,41 +1633,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_b17ma.png</t>
+          <t>stimuli/img_pey7u.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>23.0625</v>
+        <v>30.34883720930232</v>
       </c>
       <c r="N18">
-        <v>13.375</v>
+        <v>20.34883720930232</v>
       </c>
       <c r="O18">
-        <v>18.21875</v>
+        <v>25.34883720930232</v>
       </c>
       <c r="P18">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1658,58 +1694,27 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_kost0.png</t>
-        </is>
-      </c>
-      <c r="M19">
-        <v>63.09090909090909</v>
-      </c>
-      <c r="N19">
-        <v>42.77272727272727</v>
-      </c>
-      <c r="O19">
-        <v>52.93181818181819</v>
-      </c>
-      <c r="P19">
-        <v>44</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-      <c r="R19">
-        <v>5</v>
-      </c>
-      <c r="S19">
-        <v>5</v>
+          <t>stimuli/catch_25.jpg</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1731,7 +1736,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1743,46 +1748,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_eh0no.png</t>
+          <t>stimuli/img_0jzz7.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>53.66666666666666</v>
+        <v>84.85106382978724</v>
       </c>
       <c r="N20">
-        <v>36.02564102564103</v>
+        <v>68.87234042553192</v>
       </c>
       <c r="O20">
-        <v>44.84615384615385</v>
+        <v>76.86170212765958</v>
       </c>
       <c r="P20">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1804,7 +1804,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1833,29 +1833,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_95hiv.png</t>
+          <t>stimuli/img_w8yhd.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>84.04545454545455</v>
+        <v>55.74418604651163</v>
       </c>
       <c r="N21">
-        <v>67.31818181818181</v>
+        <v>38.90697674418605</v>
       </c>
       <c r="O21">
-        <v>75.68181818181819</v>
+        <v>47.32558139534883</v>
       </c>
       <c r="P21">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1877,7 +1877,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1906,29 +1906,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_6a0hu.png</t>
+          <t>stimuli/img_bj99b.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>61.275</v>
+        <v>82.79069767441861</v>
       </c>
       <c r="N22">
-        <v>42.025</v>
+        <v>65.46511627906976</v>
       </c>
       <c r="O22">
-        <v>51.65</v>
+        <v>74.12790697674419</v>
       </c>
       <c r="P22">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1950,7 +1950,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1962,41 +1962,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_0jzz7.png</t>
+          <t>stimuli/img_4o8l0.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>84.85106382978724</v>
+        <v>46.02173913043478</v>
       </c>
       <c r="N23">
-        <v>68.87234042553192</v>
+        <v>31.45652173913043</v>
       </c>
       <c r="O23">
-        <v>76.86170212765958</v>
+        <v>38.73913043478261</v>
       </c>
       <c r="P23">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S23">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2018,7 +2023,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2047,29 +2052,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_4o8l0.png</t>
+          <t>stimuli/img_abobq.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>46.02173913043478</v>
+        <v>75.18421052631579</v>
       </c>
       <c r="N24">
-        <v>31.45652173913043</v>
+        <v>54.13157894736842</v>
       </c>
       <c r="O24">
-        <v>38.73913043478261</v>
+        <v>64.65789473684211</v>
       </c>
       <c r="P24">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2091,7 +2096,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2120,29 +2125,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_6zz63.png</t>
+          <t>stimuli/img_95hiv.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>87.66666666666667</v>
+        <v>84.04545454545455</v>
       </c>
       <c r="N25">
-        <v>70.59999999999999</v>
+        <v>67.31818181818181</v>
       </c>
       <c r="O25">
-        <v>79.13333333333333</v>
+        <v>75.68181818181819</v>
       </c>
       <c r="P25">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q25">
         <v>9</v>
       </c>
       <c r="R25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2164,7 +2169,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2176,46 +2181,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_xy930.png</t>
+          <t>stimuli/img_i6wsx.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>70.5952380952381</v>
+        <v>79.07142857142857</v>
       </c>
       <c r="N26">
-        <v>49.47619047619047</v>
+        <v>58</v>
       </c>
       <c r="O26">
-        <v>60.03571428571429</v>
+        <v>68.53571428571428</v>
       </c>
       <c r="P26">
         <v>42</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S26">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2237,7 +2237,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2249,41 +2249,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_i6wsx.png</t>
+          <t>stimuli/img_eh0no.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>79.07142857142857</v>
+        <v>53.66666666666666</v>
       </c>
       <c r="N27">
-        <v>58</v>
+        <v>36.02564102564103</v>
       </c>
       <c r="O27">
-        <v>68.53571428571428</v>
+        <v>44.84615384615385</v>
       </c>
       <c r="P27">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S27">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2305,7 +2310,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2317,46 +2322,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_xbtev.png</t>
+          <t>stimuli/img_dg5h7.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>13.68181818181818</v>
+        <v>88.72093023255815</v>
       </c>
       <c r="N28">
-        <v>8.568181818181818</v>
+        <v>76.06976744186046</v>
       </c>
       <c r="O28">
-        <v>11.125</v>
+        <v>82.3953488372093</v>
       </c>
       <c r="P28">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2378,7 +2378,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2407,29 +2407,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_wgkqa.png</t>
+          <t>stimuli/img_cehin.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>87.25581395348837</v>
+        <v>78.86363636363636</v>
       </c>
       <c r="N29">
-        <v>71.13953488372093</v>
+        <v>60.02272727272727</v>
       </c>
       <c r="O29">
-        <v>79.19767441860465</v>
+        <v>69.44318181818181</v>
       </c>
       <c r="P29">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S29">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2/input_files/4_scenecat_memory_living_rooms_1.xlsx
+++ b/scene_cat_exp_2023.2/input_files/4_scenecat_memory_living_rooms_1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,49 +482,44 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_wz6x5.png</t>
+          <t>stimuli/img_kwxq1.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>68.3695652173913</v>
+        <v>68.53125</v>
       </c>
       <c r="N2">
-        <v>48.47826086956522</v>
+        <v>44.09375</v>
       </c>
       <c r="O2">
-        <v>58.42391304347826</v>
+        <v>56.3125</v>
       </c>
       <c r="P2">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +532,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -546,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>136</v>
+        <v>296</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -555,49 +550,44 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_0kqc0.png</t>
+          <t>stimuli/img_wppku.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>43.74468085106383</v>
+        <v>75.02941176470588</v>
       </c>
       <c r="N3">
-        <v>27.14893617021277</v>
+        <v>53.05882352941177</v>
       </c>
       <c r="O3">
-        <v>35.4468085106383</v>
+        <v>64.04411764705883</v>
       </c>
       <c r="P3">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -610,7 +600,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -619,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -628,7 +618,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -648,20 +638,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_wgkqa.png</t>
+          <t>stimuli/img_d8xbu.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>87.25581395348837</v>
+        <v>91.36363636363636</v>
       </c>
       <c r="N4">
-        <v>71.13953488372093</v>
+        <v>73.18181818181819</v>
       </c>
       <c r="O4">
-        <v>79.19767441860465</v>
+        <v>82.27272727272728</v>
       </c>
       <c r="P4">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -683,7 +673,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -692,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -701,49 +691,44 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_di6f0.png</t>
+          <t>stimuli/img_ikk62.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>94.04347826086956</v>
+        <v>37.48780487804878</v>
       </c>
       <c r="N5">
-        <v>83.34782608695652</v>
+        <v>21.07317073170732</v>
       </c>
       <c r="O5">
-        <v>88.69565217391303</v>
+        <v>29.28048780487805</v>
       </c>
       <c r="P5">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -756,7 +741,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -765,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -774,49 +759,44 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_6zz63.png</t>
+          <t>stimuli/img_1ao2d.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>87.66666666666667</v>
+        <v>38.77777777777778</v>
       </c>
       <c r="N6">
-        <v>70.59999999999999</v>
+        <v>18.75</v>
       </c>
       <c r="O6">
-        <v>79.13333333333333</v>
+        <v>28.76388888888889</v>
       </c>
       <c r="P6">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +809,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -838,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -847,7 +827,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -867,29 +847,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_tujn3.png</t>
+          <t>stimuli/img_7wul8.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>81.40909090909091</v>
+        <v>43.03030303030303</v>
       </c>
       <c r="N7">
-        <v>62.52272727272727</v>
+        <v>25.54545454545455</v>
       </c>
       <c r="O7">
-        <v>71.96590909090909</v>
+        <v>34.28787878787879</v>
       </c>
       <c r="P7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -902,7 +882,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -911,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>141</v>
+        <v>301</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -920,49 +900,44 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_xy930.png</t>
+          <t>stimuli/img_mucwi.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>70.5952380952381</v>
+        <v>71.14814814814815</v>
       </c>
       <c r="N8">
-        <v>49.47619047619047</v>
+        <v>48.55555555555556</v>
       </c>
       <c r="O8">
-        <v>60.03571428571429</v>
+        <v>59.85185185185185</v>
       </c>
       <c r="P8">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -975,7 +950,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -984,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>142</v>
+        <v>302</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -993,7 +968,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1008,29 +983,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_b17ma.png</t>
+          <t>stimuli/img_0mhms.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>23.0625</v>
+        <v>78</v>
       </c>
       <c r="N9">
-        <v>13.375</v>
+        <v>55.68571428571428</v>
       </c>
       <c r="O9">
-        <v>18.21875</v>
+        <v>66.84285714285714</v>
       </c>
       <c r="P9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1043,7 +1018,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1052,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>143</v>
+        <v>303</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1061,7 +1036,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1081,29 +1056,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_6a0hu.png</t>
+          <t>stimuli/img_q1ynd.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>61.275</v>
+        <v>70.05714285714286</v>
       </c>
       <c r="N10">
-        <v>42.025</v>
+        <v>47.31428571428572</v>
       </c>
       <c r="O10">
-        <v>51.65</v>
+        <v>58.68571428571429</v>
       </c>
       <c r="P10">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1116,7 +1091,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1125,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>144</v>
+        <v>304</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1134,7 +1109,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1154,29 +1129,29 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_bbs77.png</t>
+          <t>stimuli/img_wyl6z.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>31.64444444444445</v>
+        <v>59.8235294117647</v>
       </c>
       <c r="N11">
-        <v>21.26666666666667</v>
+        <v>36.23529411764706</v>
       </c>
       <c r="O11">
-        <v>26.45555555555556</v>
+        <v>48.02941176470588</v>
       </c>
       <c r="P11">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1189,7 +1164,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1198,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1207,7 +1182,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1227,20 +1202,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_xbtev.png</t>
+          <t>stimuli/img_nyv2b.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>13.68181818181818</v>
+        <v>11.91176470588235</v>
       </c>
       <c r="N12">
-        <v>8.568181818181818</v>
+        <v>6.852941176470588</v>
       </c>
       <c r="O12">
-        <v>11.125</v>
+        <v>9.382352941176471</v>
       </c>
       <c r="P12">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -1262,7 +1237,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1271,7 +1246,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>146</v>
+        <v>306</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1280,7 +1255,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1300,29 +1275,29 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_kost0.png</t>
+          <t>stimuli/img_es7o2.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>63.09090909090909</v>
+        <v>52.48571428571429</v>
       </c>
       <c r="N13">
-        <v>42.77272727272727</v>
+        <v>27.54285714285714</v>
       </c>
       <c r="O13">
-        <v>52.93181818181819</v>
+        <v>40.01428571428572</v>
       </c>
       <c r="P13">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1335,7 +1310,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1344,7 +1319,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>147</v>
+        <v>307</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1353,7 +1328,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1368,29 +1343,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_314bq.png</t>
+          <t>stimuli/img_2d3c2.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>37.08888888888889</v>
+        <v>87.54545454545455</v>
       </c>
       <c r="N14">
-        <v>20.04444444444444</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="O14">
-        <v>28.56666666666667</v>
+        <v>77.93939393939394</v>
       </c>
       <c r="P14">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1403,7 +1378,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1412,21 +1387,16 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1436,29 +1406,8 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_c0ecw.png</t>
-        </is>
-      </c>
-      <c r="M15">
-        <v>18.88888888888889</v>
-      </c>
-      <c r="N15">
-        <v>17.82222222222222</v>
-      </c>
-      <c r="O15">
-        <v>18.35555555555555</v>
-      </c>
-      <c r="P15">
-        <v>45</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
+          <t>stimuli/catch_12.jpg</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1471,7 +1420,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1480,7 +1429,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>149</v>
+        <v>309</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1489,7 +1438,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1504,29 +1453,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_f63yi.png</t>
+          <t>stimuli/img_xdhz2.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>85.27500000000001</v>
+        <v>63.3</v>
       </c>
       <c r="N16">
-        <v>68.47499999999999</v>
+        <v>37.25</v>
       </c>
       <c r="O16">
-        <v>76.875</v>
+        <v>50.275</v>
       </c>
       <c r="P16">
         <v>40</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1539,7 +1488,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1548,7 +1497,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1557,49 +1506,44 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_xu1p3.png</t>
+          <t>stimuli/img_lszzj.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>75.27659574468085</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="N17">
-        <v>56.68085106382978</v>
+        <v>45.58823529411764</v>
       </c>
       <c r="O17">
-        <v>65.97872340425532</v>
+        <v>55.14705882352941</v>
       </c>
       <c r="P17">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1612,7 +1556,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1621,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1630,49 +1574,44 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_pey7u.png</t>
+          <t>stimuli/img_e0hwx.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>30.34883720930232</v>
+        <v>78.12121212121212</v>
       </c>
       <c r="N18">
-        <v>20.34883720930232</v>
+        <v>55.36363636363637</v>
       </c>
       <c r="O18">
-        <v>25.34883720930232</v>
+        <v>66.74242424242425</v>
       </c>
       <c r="P18">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1685,7 +1624,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1694,27 +1633,58 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>152</v>
+        <v>312</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/catch_25.jpg</t>
-        </is>
+          <t>stimuli/img_cv6mf.png</t>
+        </is>
+      </c>
+      <c r="M19">
+        <v>66.8</v>
+      </c>
+      <c r="N19">
+        <v>42.08</v>
+      </c>
+      <c r="O19">
+        <v>54.44</v>
+      </c>
+      <c r="P19">
+        <v>25</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1727,7 +1697,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1736,7 +1706,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>153</v>
+        <v>313</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1745,7 +1715,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1760,29 +1730,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_0jzz7.png</t>
+          <t>stimuli/img_esb4r.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>84.85106382978724</v>
+        <v>60.73529411764706</v>
       </c>
       <c r="N20">
-        <v>68.87234042553192</v>
+        <v>38.58823529411764</v>
       </c>
       <c r="O20">
-        <v>76.86170212765958</v>
+        <v>49.66176470588235</v>
       </c>
       <c r="P20">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S20">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1795,7 +1765,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1804,7 +1774,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>154</v>
+        <v>314</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1813,7 +1783,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1833,20 +1803,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_w8yhd.png</t>
+          <t>stimuli/img_yeh72.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>55.74418604651163</v>
+        <v>68.66666666666667</v>
       </c>
       <c r="N21">
-        <v>38.90697674418605</v>
+        <v>45.21212121212121</v>
       </c>
       <c r="O21">
-        <v>47.32558139534883</v>
+        <v>56.93939393939394</v>
       </c>
       <c r="P21">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -1868,7 +1838,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1877,7 +1847,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>155</v>
+        <v>315</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1886,40 +1856,35 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_bj99b.png</t>
+          <t>stimuli/img_7ed9m.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>82.79069767441861</v>
+        <v>80.71875</v>
       </c>
       <c r="N22">
-        <v>65.46511627906976</v>
+        <v>58.65625</v>
       </c>
       <c r="O22">
-        <v>74.12790697674419</v>
+        <v>69.6875</v>
       </c>
       <c r="P22">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -1941,7 +1906,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1950,7 +1915,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>156</v>
+        <v>316</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1959,7 +1924,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1979,29 +1944,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_4o8l0.png</t>
+          <t>stimuli/img_60242.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>46.02173913043478</v>
+        <v>78.33333333333333</v>
       </c>
       <c r="N23">
-        <v>31.45652173913043</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="O23">
-        <v>38.73913043478261</v>
+        <v>67.95454545454545</v>
       </c>
       <c r="P23">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -2014,7 +1979,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2023,7 +1988,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2032,7 +1997,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2052,29 +2017,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_abobq.png</t>
+          <t>stimuli/img_ye5sl.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>75.18421052631579</v>
+        <v>53.2258064516129</v>
       </c>
       <c r="N24">
-        <v>54.13157894736842</v>
+        <v>34.45161290322581</v>
       </c>
       <c r="O24">
-        <v>64.65789473684211</v>
+        <v>43.83870967741936</v>
       </c>
       <c r="P24">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2087,7 +2052,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2096,7 +2061,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2105,7 +2070,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2125,20 +2090,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_95hiv.png</t>
+          <t>stimuli/img_9mky8.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>84.04545454545455</v>
+        <v>84.32352941176471</v>
       </c>
       <c r="N25">
-        <v>67.31818181818181</v>
+        <v>65.17647058823529</v>
       </c>
       <c r="O25">
-        <v>75.68181818181819</v>
+        <v>74.75</v>
       </c>
       <c r="P25">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -2160,7 +2125,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2169,7 +2134,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>159</v>
+        <v>319</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2178,7 +2143,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2193,29 +2158,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_i6wsx.png</t>
+          <t>stimuli/img_7w5tw.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>79.07142857142857</v>
+        <v>53.2258064516129</v>
       </c>
       <c r="N26">
-        <v>58</v>
+        <v>28.90322580645161</v>
       </c>
       <c r="O26">
-        <v>68.53571428571428</v>
+        <v>41.06451612903226</v>
       </c>
       <c r="P26">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2228,7 +2193,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2237,7 +2202,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2246,49 +2211,44 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_eh0no.png</t>
+          <t>stimuli/img_3v5w3.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>53.66666666666666</v>
+        <v>88.90625</v>
       </c>
       <c r="N27">
-        <v>36.02564102564103</v>
+        <v>68.15625</v>
       </c>
       <c r="O27">
-        <v>44.84615384615385</v>
+        <v>78.53125</v>
       </c>
       <c r="P27">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2301,7 +2261,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2310,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2319,44 +2279,49 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_dg5h7.png</t>
+          <t>stimuli/img_inqod.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>88.72093023255815</v>
+        <v>70.84848484848484</v>
       </c>
       <c r="N28">
-        <v>76.06976744186046</v>
+        <v>50.63636363636363</v>
       </c>
       <c r="O28">
-        <v>82.3953488372093</v>
+        <v>60.74242424242424</v>
       </c>
       <c r="P28">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2369,7 +2334,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2378,7 +2343,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2387,49 +2352,968 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>stimuli/img_89rmb.png</t>
+        </is>
+      </c>
+      <c r="M29">
+        <v>55.18518518518518</v>
+      </c>
+      <c r="N29">
+        <v>29.25925925925926</v>
+      </c>
+      <c r="O29">
+        <v>42.22222222222222</v>
+      </c>
+      <c r="P29">
+        <v>27</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>323</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>old</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>j</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>stimuli/img_cehin.png</t>
-        </is>
-      </c>
-      <c r="M29">
-        <v>78.86363636363636</v>
-      </c>
-      <c r="N29">
-        <v>60.02272727272727</v>
-      </c>
-      <c r="O29">
-        <v>69.44318181818181</v>
-      </c>
-      <c r="P29">
-        <v>44</v>
-      </c>
-      <c r="Q29">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>stimuli/img_uwv6y.png</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>78.88888888888889</v>
+      </c>
+      <c r="N30">
+        <v>59.30555555555556</v>
+      </c>
+      <c r="O30">
+        <v>69.09722222222223</v>
+      </c>
+      <c r="P30">
+        <v>36</v>
+      </c>
+      <c r="Q30">
+        <v>8</v>
+      </c>
+      <c r="R30">
+        <v>8</v>
+      </c>
+      <c r="S30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>324</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>stimuli/img_aplao.png</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>64.09090909090909</v>
+      </c>
+      <c r="N31">
+        <v>40.75757575757576</v>
+      </c>
+      <c r="O31">
+        <v>52.42424242424242</v>
+      </c>
+      <c r="P31">
+        <v>33</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>325</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>stimuli/img_qmgwq.png</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>84.58333333333333</v>
+      </c>
+      <c r="N32">
+        <v>64.44444444444444</v>
+      </c>
+      <c r="O32">
+        <v>74.51388888888889</v>
+      </c>
+      <c r="P32">
+        <v>36</v>
+      </c>
+      <c r="Q32">
+        <v>9</v>
+      </c>
+      <c r="R32">
+        <v>9</v>
+      </c>
+      <c r="S32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>326</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>stimuli/img_mawe6.png</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>83.48387096774194</v>
+      </c>
+      <c r="N33">
+        <v>65.54838709677419</v>
+      </c>
+      <c r="O33">
+        <v>74.51612903225806</v>
+      </c>
+      <c r="P33">
+        <v>31</v>
+      </c>
+      <c r="Q33">
+        <v>9</v>
+      </c>
+      <c r="R33">
+        <v>9</v>
+      </c>
+      <c r="S33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>327</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>stimuli/img_t90e2.png</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>83.0625</v>
+      </c>
+      <c r="N34">
+        <v>61.96875</v>
+      </c>
+      <c r="O34">
+        <v>72.515625</v>
+      </c>
+      <c r="P34">
+        <v>32</v>
+      </c>
+      <c r="Q34">
+        <v>9</v>
+      </c>
+      <c r="R34">
+        <v>9</v>
+      </c>
+      <c r="S34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>328</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>stimuli/img_eatdk.png</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>81.40625</v>
+      </c>
+      <c r="N35">
+        <v>61.375</v>
+      </c>
+      <c r="O35">
+        <v>71.390625</v>
+      </c>
+      <c r="P35">
+        <v>32</v>
+      </c>
+      <c r="Q35">
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <v>8</v>
+      </c>
+      <c r="S35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>329</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>stimuli/img_lpj57.png</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>74.77777777777777</v>
+      </c>
+      <c r="N36">
+        <v>54.44444444444444</v>
+      </c>
+      <c r="O36">
+        <v>64.61111111111111</v>
+      </c>
+      <c r="P36">
+        <v>27</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>330</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>stimuli/img_a8wvq.png</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>86.25925925925925</v>
+      </c>
+      <c r="N37">
+        <v>66.25925925925925</v>
+      </c>
+      <c r="O37">
+        <v>76.25925925925925</v>
+      </c>
+      <c r="P37">
+        <v>27</v>
+      </c>
+      <c r="Q37">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>10</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>331</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>stimuli/img_79b5l.png</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>72.74285714285715</v>
+      </c>
+      <c r="N38">
+        <v>53.31428571428572</v>
+      </c>
+      <c r="O38">
+        <v>63.02857142857143</v>
+      </c>
+      <c r="P38">
+        <v>35</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <v>6</v>
+      </c>
+      <c r="S38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>332</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>stimuli/img_c30d1.png</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>78.875</v>
+      </c>
+      <c r="N39">
+        <v>60.34375</v>
+      </c>
+      <c r="O39">
+        <v>69.609375</v>
+      </c>
+      <c r="P39">
+        <v>32</v>
+      </c>
+      <c r="Q39">
+        <v>8</v>
+      </c>
+      <c r="R39">
+        <v>8</v>
+      </c>
+      <c r="S39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>333</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>stimuli/img_ce9vx.png</t>
+        </is>
+      </c>
+      <c r="M40">
+        <v>75.90909090909091</v>
+      </c>
+      <c r="N40">
+        <v>57.12121212121212</v>
+      </c>
+      <c r="O40">
+        <v>66.51515151515152</v>
+      </c>
+      <c r="P40">
+        <v>33</v>
+      </c>
+      <c r="Q40">
         <v>7</v>
       </c>
-      <c r="R29">
+      <c r="R40">
         <v>7</v>
       </c>
-      <c r="S29">
+      <c r="S40">
         <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>334</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>stimuli/img_iyxnj.png</t>
+        </is>
+      </c>
+      <c r="M41">
+        <v>75.30555555555556</v>
+      </c>
+      <c r="N41">
+        <v>54.33333333333334</v>
+      </c>
+      <c r="O41">
+        <v>64.81944444444444</v>
+      </c>
+      <c r="P41">
+        <v>36</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>6</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>335</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>stimuli/img_7ucnr.png</t>
+        </is>
+      </c>
+      <c r="M42">
+        <v>70.39393939393939</v>
+      </c>
+      <c r="N42">
+        <v>47.90909090909091</v>
+      </c>
+      <c r="O42">
+        <v>59.15151515151515</v>
+      </c>
+      <c r="P42">
+        <v>33</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
